--- a/data/trans_dic/P6903-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6903-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,77%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>24,11; 52,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>13,87; 76,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>19,05; 68,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>14,13; 50,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>10,07; 79,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>24,92; 77,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>11,93; 75,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>23,69; 48,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>21,37; 67,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>25,85; 64,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>16,44; 72,32</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,12%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>26,5; 44,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>16,82; 37,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>25,7; 49,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>26,6; 60,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>17,03; 37,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>23,56; 48,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>21,09; 47,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>28,48; 57,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>25,62; 38,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>22,98; 38,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>27,82; 44,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>32,37; 54,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,39%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>27,02; 44,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>19,52; 38,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>27,38; 46,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>19,88; 40,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>21,42; 42,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>25,67; 49,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>31,65; 54,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>29,6; 48,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>27,38; 41,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>24,8; 39,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>32,92; 47,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>27,08; 40,25</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,53%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>18,43; 36,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>12,05; 29,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>29,13; 50,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>28,89; 47,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>24,57; 56,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>12,68; 40,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>28,35; 54,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>34,14; 54,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>22,08; 37,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>14,58; 29,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>32,24; 49,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>35,05; 49,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,06%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>7,84; 30,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>4,78; 25,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>29,4; 60,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>23,95; 45,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>7,34; 57,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>22,01; 64,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>25,41; 64,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>35,79; 55,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>11,4; 31,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>12,92; 35,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>31,8; 56,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>31,6; 46,01</t>
         </is>
       </c>
     </row>
@@ -1391,27 +1391,27 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>33,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,92%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 82,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 53,52</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>27,22; 35,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>19,38; 28,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>33,49; 44,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>29,89; 41,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>25,12; 37,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>27,66; 41,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,78; 48,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>37,17; 48,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,72; 34,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,38; 32,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>35,89; 44,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>34,84; 42,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6903-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>37,14%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 75,75</t>
+          <t>10,67; 74,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 72,32</t>
+          <t>15,03; 70,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>42,04%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,6; 60,67</t>
+          <t>25,44; 59,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 57,3</t>
+          <t>27,8; 56,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,37; 54,42</t>
+          <t>31,26; 54,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>32,37%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,88; 40,16</t>
+          <t>18,86; 39,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,6; 48,61</t>
+          <t>29,02; 48,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,08; 40,25</t>
+          <t>26,03; 39,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>36,8%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 47,89</t>
+          <t>28,01; 46,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,14; 54,64</t>
+          <t>18,95; 50,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,05; 49,51</t>
+          <t>24,51; 45,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,95; 45,31</t>
+          <t>23,4; 44,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,79; 55,06</t>
+          <t>35,74; 55,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,6; 46,01</t>
+          <t>31,45; 45,8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>33,62%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,66</t>
+          <t>0,0; 83,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,52</t>
+          <t>0,0; 53,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34,19%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41,54%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39,09%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>39,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>27,22; 35,99</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>19,38; 28,66</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>33,49; 44,56</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 41,15</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28,98; 40,16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>25,12; 37,58</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>27,66; 41,32</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>34,78; 48,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>37,17; 48,13</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>28,42; 45,4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>27,72; 34,98</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>24,38; 32,36</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>35,89; 44,44</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>34,84; 42,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>30,3; 40,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6903-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,11; 52,02</t>
+          <t>22,85; 52,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,87; 76,91</t>
+          <t>12,99; 75,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,05; 68,48</t>
+          <t>23,58; 69,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 50,16</t>
+          <t>10,55; 53,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 79,6</t>
+          <t>11,16; 72,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 77,9</t>
+          <t>25,3; 83,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 74,35</t>
+          <t>10,48; 74,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,69; 48,02</t>
+          <t>24,64; 46,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 67,36</t>
+          <t>22,86; 65,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,85; 64,56</t>
+          <t>28,01; 64,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 70,05</t>
+          <t>13,76; 67,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,5; 44,18</t>
+          <t>26,54; 42,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 37,17</t>
+          <t>17,51; 37,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 49,29</t>
+          <t>26,45; 48,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 59,82</t>
+          <t>25,18; 60,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 37,13</t>
+          <t>17,87; 37,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,56; 48,1</t>
+          <t>24,16; 47,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,09; 47,16</t>
+          <t>20,83; 47,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 56,24</t>
+          <t>27,25; 56,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,62; 38,73</t>
+          <t>26,04; 39,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,98; 38,06</t>
+          <t>23,3; 39,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,82; 44,78</t>
+          <t>28,07; 44,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,26; 54,07</t>
+          <t>31,4; 54,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,02; 44,66</t>
+          <t>28,27; 45,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,52; 38,0</t>
+          <t>20,0; 38,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,38; 46,27</t>
+          <t>28,36; 46,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,86; 39,02</t>
+          <t>19,15; 38,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,42; 42,01</t>
+          <t>20,88; 43,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,67; 49,06</t>
+          <t>25,42; 49,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,65; 54,42</t>
+          <t>33,08; 55,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 48,23</t>
+          <t>28,86; 48,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,38; 41,14</t>
+          <t>28,64; 42,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,8; 39,85</t>
+          <t>24,72; 39,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,92; 47,68</t>
+          <t>32,65; 47,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,03; 39,36</t>
+          <t>25,68; 38,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 36,88</t>
+          <t>18,99; 36,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 29,83</t>
+          <t>11,62; 28,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,13; 50,86</t>
+          <t>29,14; 51,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 46,81</t>
+          <t>26,96; 46,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 56,53</t>
+          <t>24,68; 56,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 40,8</t>
+          <t>13,22; 41,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,35; 54,85</t>
+          <t>28,75; 54,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,95; 50,02</t>
+          <t>16,05; 49,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,08; 37,97</t>
+          <t>22,38; 37,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 29,78</t>
+          <t>14,31; 29,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,24; 49,47</t>
+          <t>32,8; 50,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,51; 45,33</t>
+          <t>23,73; 45,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 30,18</t>
+          <t>8,27; 29,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 25,11</t>
+          <t>4,84; 25,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,4; 60,09</t>
+          <t>29,38; 57,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,4; 44,61</t>
+          <t>23,62; 45,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 57,33</t>
+          <t>7,14; 57,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,01; 64,64</t>
+          <t>21,94; 65,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,41; 64,76</t>
+          <t>25,79; 63,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,74; 55,17</t>
+          <t>35,08; 55,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 31,48</t>
+          <t>11,01; 31,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,92; 35,29</t>
+          <t>14,0; 35,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31,8; 56,58</t>
+          <t>31,97; 55,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,45; 45,8</t>
+          <t>30,33; 45,88</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,11</t>
+          <t>0,0; 82,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,67</t>
+          <t>0,0; 54,93</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,22; 35,99</t>
+          <t>27,29; 36,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,38; 28,66</t>
+          <t>19,21; 28,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,49; 44,56</t>
+          <t>33,68; 44,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,16</t>
+          <t>28,69; 40,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,12; 37,58</t>
+          <t>25,09; 37,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,66; 41,32</t>
+          <t>28,46; 41,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,78; 48,52</t>
+          <t>35,45; 48,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,42; 45,4</t>
+          <t>28,29; 45,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,98</t>
+          <t>27,76; 35,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,36</t>
+          <t>24,5; 32,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35,89; 44,44</t>
+          <t>35,71; 44,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,3; 40,66</t>
+          <t>31,06; 40,98</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente agotado a todas horas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17227</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4724</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7489</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5936</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5967</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6118</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23163</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8820</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13456</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7923</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10551; 24076</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1342; 7793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4043; 11980</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5989</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2095; 10604</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1122; 7261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2945; 9686</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1609; 11436</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16271; 30857</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4660; 13271</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8066; 18499</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2936; 14484</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49509</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22339</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30243</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24957</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21258</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23773</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15380</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20871</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70767</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46112</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45623</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45828</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37764; 60849</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14926; 31776</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21574; 39915</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14878; 35699</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14163; 29844</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16216; 32001</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9640; 21975</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13612; 28449</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57687; 86776</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>35499; 59939</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35897; 56685</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34234; 58970</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45202</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27566</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42141</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26635</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22031</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26583</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31390</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28746</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>67233</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>54148</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73531</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>55381</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35624; 57134</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19573; 37304</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32085; 52447</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18292; 36510</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14623; 30604</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18459; 35915</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23638; 39489</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21807; 36579</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56154; 82984</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42149; 67183</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>60262; 87411</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43930; 66373</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29586</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17414</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36337</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>39382</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14545</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23303</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56683</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44131</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27136</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59640</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>96066</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21098; 40070</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10340; 25408</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26638; 46687</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28778; 49944</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9140; 20857</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5327; 16877</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16133; 30391</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24760; 76533</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>33160; 55832</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18505; 38268</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>48389; 74159</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>61951; 118316</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19741</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22406</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10299</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13806</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24801</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11675</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15532</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33547</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>47208</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3795; 13692</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2025; 10457</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13175; 25919</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15725; 30038</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>994; 8040</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5393; 16007</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7944; 19643</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19470; 30603</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6581; 18835</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9301; 23488</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24187; 41928</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37031; 56016</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 894</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2415</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3206</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 633</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 633</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>149217</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>77275</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>135950</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>115185</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>67753</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>74473</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>89846</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>138214</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>216970</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>151748</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>225796</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>253399</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>128890; 170546</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>62308; 92651</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>117870; 154859</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>96638; 137275</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>55237; 83314</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>61107; 89027</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>76669; 105873</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>99999; 160985</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>192224; 242444</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>132031; 174382</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>202214; 250839</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>214441; 282906</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>